--- a/target/classes/com/crm/qa/testdata/FreeCRM.xlsx
+++ b/target/classes/com/crm/qa/testdata/FreeCRM.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19608" windowHeight="3468"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Title</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>FirstName</t>
   </si>
@@ -38,40 +31,31 @@
     <t>Company</t>
   </si>
   <si>
-    <t>Mr.</t>
-  </si>
-  <si>
-    <t>Sawan</t>
-  </si>
-  <si>
     <t>Choubisa</t>
   </si>
   <si>
     <t>Apple</t>
   </si>
   <si>
-    <t>Mrs.</t>
-  </si>
-  <si>
-    <t>Tusharika</t>
-  </si>
-  <si>
     <t>Agarwal</t>
   </si>
   <si>
     <t>Atos</t>
   </si>
   <si>
-    <t>Satendra</t>
-  </si>
-  <si>
     <t>Singh</t>
   </si>
   <si>
-    <t>Dr.</t>
-  </si>
-  <si>
     <t>Capegemini</t>
+  </si>
+  <si>
+    <t>Fsjf absne</t>
+  </si>
+  <si>
+    <t>Keshav Parashar</t>
+  </si>
+  <si>
+    <t>Satendra Singh</t>
   </si>
 </sst>
 </file>
@@ -389,15 +373,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -410,50 +395,48 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
